--- a/NewSavedView.xlsx
+++ b/NewSavedView.xlsx
@@ -520,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,64 +559,37 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -630,25 +603,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -662,25 +635,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -694,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -726,25 +699,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -758,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -790,24 +763,56 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>46</v>
       </c>
     </row>
